--- a/biology/Zoologie/Crazy_Bear/Crazy_Bear.xlsx
+++ b/biology/Zoologie/Crazy_Bear/Crazy_Bear.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Crazy Bear ou Ours sous cocaïne[1] au Québec (Cocaine Bear) est un film américain réalisé par Elizabeth Banks et sorti en 2023. Il s'inspire en partie d'un fait réel survenu aux États-Unis en 1985, alors qu'un ours noir a découvert de la cocaïne dans un sac de sport dans la forêt nationale de Chattahoochee-Oconee et est décédé peu après en avoir ingéré.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Crazy Bear ou Ours sous cocaïne au Québec (Cocaine Bear) est un film américain réalisé par Elizabeth Banks et sorti en 2023. Il s'inspire en partie d'un fait réel survenu aux États-Unis en 1985, alors qu'un ours noir a découvert de la cocaïne dans un sac de sport dans la forêt nationale de Chattahoochee-Oconee et est décédé peu après en avoir ingéré.
 Un ours noir trouve dans les bois de Géorgie une cargaison de cocaïne. Après en avoir avalé une grande quantité, il entre dans une rage meurtrière à laquelle touristes, habitants locaux et malfrats vont devoir survivre.
 </t>
         </is>
@@ -512,7 +524,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1985, le contrebandier de drogue Andrew C. Thornton II (en) laisse tomber une certaine quantité de cocaïne de son avion. Il tente de se parachuter avec un sac plein de cocaïne, mais se frappe la tête et tombe de l'avion. Son corps atterrit à Knoxville, Tennessee, où il est identifié par Bob, un détective local. Il conclut que la cocaïne est probablement venue de St. Louis, amenée par le contrebandier Syd White, le reste de la marchandise est porté disparu. Pendant ce temps, dans la forêt nationale de Chattahoochee-Oconee, une ourse noire ingurgite une partie de la cocaïne, devenant très agressive et attaque deux randonneurs, Elsa et Olaf.
 Dans le nord-est de la Géorgie, la collégienne Dee Dee vit avec sa mère, Sari, infirmière. Bouleversée du fait que sa mère a changé leurs plans de week-end afin qu'ils puissent sortir de la ville avec le nouveau petit ami de Sari, Dee Dee sèche l'école avec son meilleur ami Henry afin faire une peinture des chutes de la forêt. Ils trouvent l'une des briques de cocaïne et en prennent, après que Henry ait affirmé qu'il prend de la cocaïne dans le but de paraître cool pour Dee Dee, mais sont attaqués par l'ours. Sari devine où se trouvent les enfants et s'aventure dans la forêt avec la Ranger Liz et son béguin, Peter. Après avoir trouvé Henry accroché à un arbre, l'ourse attaque, réduisant Liz dans le processus avant de partir pour obtenir de l'aide. Peter trébuche sur l'une des briques de cocaïne, alertant l'ourse qui attaque alors Peter qui tombe de l'arbre avec une jambe arrachée. Sari et Henry s'enfuient.
@@ -549,7 +563,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve"> Sauf indication contraire ou complémentaire, les informations mentionnées dans cette section peuvent être confirmées par la base de données IMDb.
 Titre original : Cocaine Bear
@@ -567,18 +583,18 @@
 Production déléguée : Robin Mulcahy Fisichella
 Sociétés de production : Brownstone Productions et Lord Miller Productions
 Société de distribution : Universal Pictures (États-Unis, France)
-Budget : entre 30 et 35 millions de dollars[2],[3]
+Budget : entre 30 et 35 millions de dollars,
 Pays de production :  États-Unis
 Langue originale : anglais
 Format : couleur
 Genre : comédie horrifique, comédie policière, thriller
 Durée : 95 minutes
-Date de sortie[4] :
+Date de sortie :
 États-Unis, Canada : 24 février 2023
 France : 15 mars 2023
 Classification :
 États-Unis : R (interdit aux moins de 17 ans non accompagnées d'un adulte)
-France : interdit aux moins de 12 ans[5]</t>
+France : interdit aux moins de 12 ans</t>
         </is>
       </c>
     </row>
@@ -606,7 +622,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve"> Sauf indication contraire ou complémentaire, les informations mentionnées dans cette section peuvent être confirmées par la base de données IMDb.
 Keri Russell (VF : Chloé Berthier ; VQ : Rose-Maité Erkoreka) : Sari
@@ -626,7 +644,7 @@
 Kahyun Kim : Beth
 Matthew Rhys : Andrew C. Thornton II (en)
 Version française dirigée par Virginie Méry chez Creative Symphonia, d'après une adaptation des dialogues de François Vidal et Thierry Olieu.
- Source et légende : version française (VF) sur RS Doublage[6]</t>
+ Source et légende : version française (VF) sur RS Doublage</t>
         </is>
       </c>
     </row>
@@ -656,13 +674,14 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Genèse et développement
-En décembre 2019, il est annoncé que Phil Lord et Chris Miller vont produire une comédie horrifique, alors sans titre, avec un ours. Le film doit alors être réalisé par Matt Bettinelli-Olpin et Tyler Gillett, d'après un script spéculatif de Jimmy Warden[7]. Ce dernier s'inspire d'une histoire réelle survenue en novembre 1985. Dans la forêt nationale de Chattahoochee-Oconee, un ours noir « découvre » un sac de sport contenant une trentaine de kilos de cocaïne pure. L'ours ingère une partie de la drogue et meurt peu après. L'affaire sera rendue publique peu après car l'ours n'aura mangé que quelques grammes alors que le contenu total du sac n'a pas été retrouvé[8].
-En mars 2021, Universal Pictures annonce que le film est en développement[9],[10]. C'est finalement Elizabeth Banks qui reprend la réalisation du film. Elle participe également à la production avec son partenaire Max Handelman et leur société Brownstone Productions. Phil Lord, Chris Miller, Aditya Sood et Brian Duffield (en) produisent également le film[11].
-Attribution des rôles
-En juillet 2021, Keri Russell, O'Shea Jackson Jr., Ray Liotta, Alden Ehrenreich ainsi que Jesse Tyler Ferguson sont annoncés[12]. En août 2021, Margo Martindale, Kristofer Hivju, Brooklynn Prince et aussi Christian Convery rejoignent la distribution[13].
-Tournage
-Le tournage débute le 20 août 2021 à Wicklow en Irlande[14],[15]. Il a lieu dans d'autres villes du comté de Wicklow (notamment Avoca) et à Dublin[16]. Le 17 octobre 2021, la réalisatrice Elizabeth Banks annonce la fin des prises de vue[17].
+          <t>Genèse et développement</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En décembre 2019, il est annoncé que Phil Lord et Chris Miller vont produire une comédie horrifique, alors sans titre, avec un ours. Le film doit alors être réalisé par Matt Bettinelli-Olpin et Tyler Gillett, d'après un script spéculatif de Jimmy Warden. Ce dernier s'inspire d'une histoire réelle survenue en novembre 1985. Dans la forêt nationale de Chattahoochee-Oconee, un ours noir « découvre » un sac de sport contenant une trentaine de kilos de cocaïne pure. L'ours ingère une partie de la drogue et meurt peu après. L'affaire sera rendue publique peu après car l'ours n'aura mangé que quelques grammes alors que le contenu total du sac n'a pas été retrouvé.
+En mars 2021, Universal Pictures annonce que le film est en développement,. C'est finalement Elizabeth Banks qui reprend la réalisation du film. Elle participe également à la production avec son partenaire Max Handelman et leur société Brownstone Productions. Phil Lord, Chris Miller, Aditya Sood et Brian Duffield (en) produisent également le film.
 </t>
         </is>
       </c>
@@ -688,17 +707,131 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Production</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Attribution des rôles</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En juillet 2021, Keri Russell, O'Shea Jackson Jr., Ray Liotta, Alden Ehrenreich ainsi que Jesse Tyler Ferguson sont annoncés. En août 2021, Margo Martindale, Kristofer Hivju, Brooklynn Prince et aussi Christian Convery rejoignent la distribution.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Crazy_Bear</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Crazy_Bear</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Production</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Tournage</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le tournage débute le 20 août 2021 à Wicklow en Irlande,. Il a lieu dans d'autres villes du comté de Wicklow (notamment Avoca) et à Dublin. Le 17 octobre 2021, la réalisatrice Elizabeth Banks annonce la fin des prises de vue.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Crazy_Bear</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Crazy_Bear</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Sortie et accueil</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Critique
-Le film reçoit des critiques partagées. Sur l’agrégateur de critiques Rotten Tomatoes, il obtient 67% d'avis favorables pour 303 critiques et une note moyenne de 6,1⁄10. Le consensus suivant résume les critiques compilées par le site : « Malgré l'intrigue à moitié cuite et une interprétation inégale, sa frénésie donnera aux amateurs de films B un contact élevé[18] ». Sur Metacritic, qui utilise une moyenne pondérée, le film obtient une note de 54⁄100 pour 58 critiques[19].
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Critique</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le film reçoit des critiques partagées. Sur l’agrégateur de critiques Rotten Tomatoes, il obtient 67% d'avis favorables pour 303 critiques et une note moyenne de 6,1⁄10. Le consensus suivant résume les critiques compilées par le site : « Malgré l'intrigue à moitié cuite et une interprétation inégale, sa frénésie donnera aux amateurs de films B un contact élevé ». Sur Metacritic, qui utilise une moyenne pondérée, le film obtient une note de 54⁄100 pour 58 critiques.
 Sur le site AlloCiné, qui recense 27 critiques de presse, le film obtient la note moyenne de 2,8⁄5
-[20].
-Box-office
-Pour un budget d'environ 30 millions de dollars[21], le film en récolte plus de 87 millions dans le monde[22].
+.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Crazy_Bear</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Crazy_Bear</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Sortie et accueil</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Box-office</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pour un budget d'environ 30 millions de dollars, le film en récolte plus de 87 millions dans le monde.
 </t>
         </is>
       </c>
